--- a/testakun.xlsx
+++ b/testakun.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cafee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36DCD28-0F1A-4EA5-AEED-68A2A27F13DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A825DB-DD8B-431D-80BA-259A10A99F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1008" windowWidth="17976" windowHeight="8964" xr2:uid="{5E5EA9CE-6F40-425B-8DD5-0A8D13CE26FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E5EA9CE-6F40-425B-8DD5-0A8D13CE26FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -90,9 +88,6 @@
     <t>password2</t>
   </si>
   <si>
-    <t>userr3</t>
-  </si>
-  <si>
     <t>USER3</t>
   </si>
   <si>
@@ -321,9 +316,6 @@
     <t>userfake1@gmail.com2</t>
   </si>
   <si>
-    <t>userfake1@gmail.com3</t>
-  </si>
-  <si>
     <t>userfake1@gmail.com4</t>
   </si>
   <si>
@@ -394,6 +386,12 @@
   </si>
   <si>
     <t>userfake1@gmail.com27</t>
+  </si>
+  <si>
+    <t>userfake1@gmail.com99</t>
+  </si>
+  <si>
+    <t>userr99</t>
   </si>
 </sst>
 </file>
@@ -761,7 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA38ACC7-E97D-4446-AF0D-6594F00AC4A0}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>2358645133</v>
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>2358645134</v>
@@ -861,427 +861,427 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>2358645135</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>2358645136</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>2358645137</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>2358645138</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>2358645139</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>2358645140</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>2358645141</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>2358645142</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>2358645143</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>2358645144</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16">
         <v>2358645145</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17">
         <v>2358645146</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>2358645147</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>2358645148</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>2358645149</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>2358645150</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22">
         <v>2358645151</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>2358645152</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24">
         <v>2358645153</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25">
         <v>2358645154</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>2358645155</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27">
         <v>2358645156</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28">
         <v>2358645157</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>2358645158</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>2358645159</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
